--- a/REGULAR/CCT/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/CCT/GARCIA, HEIZEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="275">
   <si>
     <t>PERIOD</t>
   </si>
@@ -909,6 +909,15 @@
   </si>
   <si>
     <t>UT(0-0-36)</t>
+  </si>
+  <si>
+    <t>12/11,13/2023</t>
+  </si>
+  <si>
+    <t>12/20,22,27,28,29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1606,7 +1615,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K321" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K323" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1935,12 +1944,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K321"/>
+  <dimension ref="A2:K323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A268" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A301" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F280" sqref="F280"/>
+      <selection pane="bottomLeft" activeCell="K311" sqref="K311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2124,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.289999999999992</v>
+        <v>17.289999999999992</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8865,13 +8874,15 @@
       <c r="B305" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C305" s="13"/>
+      <c r="C305" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D305" s="39"/>
       <c r="E305" s="9"/>
       <c r="F305" s="20"/>
-      <c r="G305" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G305" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H305" s="39"/>
       <c r="I305" s="9"/>
@@ -8884,63 +8895,91 @@
       <c r="A306" s="40">
         <v>45199</v>
       </c>
-      <c r="B306" s="20"/>
-      <c r="C306" s="13"/>
+      <c r="B306" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C306" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D306" s="39"/>
       <c r="E306" s="9"/>
       <c r="F306" s="20"/>
-      <c r="G306" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H306" s="39"/>
+      <c r="G306" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H306" s="39">
+        <v>1</v>
+      </c>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
-      <c r="K306" s="20"/>
+      <c r="K306" s="50">
+        <v>45195</v>
+      </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>45230</v>
       </c>
-      <c r="B307" s="20"/>
-      <c r="C307" s="13"/>
+      <c r="B307" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C307" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D307" s="39"/>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H307" s="39"/>
+      <c r="G307" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H307" s="39">
+        <v>1</v>
+      </c>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
-      <c r="K307" s="20"/>
+      <c r="K307" s="50">
+        <v>45211</v>
+      </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>45260</v>
       </c>
-      <c r="B308" s="20"/>
-      <c r="C308" s="13"/>
+      <c r="B308" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C308" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D308" s="39"/>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H308" s="39"/>
+      <c r="G308" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H308" s="39">
+        <v>1</v>
+      </c>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
-      <c r="K308" s="20"/>
+      <c r="K308" s="50">
+        <v>45261</v>
+      </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>45291</v>
       </c>
-      <c r="B309" s="20"/>
+      <c r="B309" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C309" s="13"/>
-      <c r="D309" s="39"/>
+      <c r="D309" s="39">
+        <v>5</v>
+      </c>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
       <c r="G309" s="13" t="str">
@@ -8950,11 +8989,15 @@
       <c r="H309" s="39"/>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="20"/>
+      <c r="K309" s="20" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
-      <c r="B310" s="20"/>
+      <c r="B310" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39"/>
       <c r="E310" s="9"/>
@@ -8963,14 +9006,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H310" s="39"/>
+      <c r="H310" s="39">
+        <v>2</v>
+      </c>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
-      <c r="K310" s="20"/>
+      <c r="K310" s="20" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
-      <c r="B311" s="20"/>
+      <c r="B311" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C311" s="13"/>
       <c r="D311" s="39"/>
       <c r="E311" s="9"/>
@@ -8979,13 +9028,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H311" s="39"/>
+      <c r="H311" s="39">
+        <v>1</v>
+      </c>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
-      <c r="K311" s="20"/>
+      <c r="K311" s="50">
+        <v>45279</v>
+      </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="40"/>
+      <c r="A312" s="48" t="s">
+        <v>274</v>
+      </c>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
       <c r="D312" s="39"/>
@@ -9001,7 +9056,9 @@
       <c r="K312" s="20"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="40"/>
+      <c r="A313" s="40">
+        <v>45292</v>
+      </c>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
       <c r="D313" s="39"/>
@@ -9017,7 +9074,9 @@
       <c r="K313" s="20"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="40"/>
+      <c r="A314" s="40">
+        <v>45323</v>
+      </c>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
       <c r="D314" s="39"/>
@@ -9033,7 +9092,9 @@
       <c r="K314" s="20"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="40"/>
+      <c r="A315" s="40">
+        <v>45352</v>
+      </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
       <c r="D315" s="39"/>
@@ -9049,7 +9110,9 @@
       <c r="K315" s="20"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="40"/>
+      <c r="A316" s="40">
+        <v>45383</v>
+      </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
       <c r="D316" s="39"/>
@@ -9065,7 +9128,9 @@
       <c r="K316" s="20"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="40"/>
+      <c r="A317" s="40">
+        <v>45413</v>
+      </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
       <c r="D317" s="39"/>
@@ -9081,7 +9146,9 @@
       <c r="K317" s="20"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="40"/>
+      <c r="A318" s="40">
+        <v>45444</v>
+      </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
       <c r="D318" s="39"/>
@@ -9097,7 +9164,9 @@
       <c r="K318" s="20"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="40"/>
+      <c r="A319" s="40">
+        <v>45474</v>
+      </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
       <c r="D319" s="39"/>
@@ -9113,7 +9182,9 @@
       <c r="K319" s="20"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="40"/>
+      <c r="A320" s="40">
+        <v>45505</v>
+      </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
@@ -9129,20 +9200,58 @@
       <c r="K320" s="20"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="41"/>
-      <c r="B321" s="15"/>
-      <c r="C321" s="42"/>
-      <c r="D321" s="43"/>
+      <c r="A321" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B321" s="20"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="39"/>
       <c r="E321" s="9"/>
-      <c r="F321" s="15"/>
+      <c r="F321" s="20"/>
       <c r="G321" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H321" s="43"/>
+      <c r="H321" s="39"/>
       <c r="I321" s="9"/>
-      <c r="J321" s="12"/>
-      <c r="K321" s="15"/>
+      <c r="J321" s="11"/>
+      <c r="K321" s="20"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B322" s="20"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="39"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="20"/>
+      <c r="G322" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H322" s="39"/>
+      <c r="I322" s="9"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="20"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B323" s="15"/>
+      <c r="C323" s="42"/>
+      <c r="D323" s="43"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="15"/>
+      <c r="G323" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H323" s="43"/>
+      <c r="I323" s="9"/>
+      <c r="J323" s="12"/>
+      <c r="K323" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9311,7 +9420,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>80.493999999999943</v>
+        <v>79.493999999999943</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CCT/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/CCT/GARCIA, HEIZEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="275">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1949,7 +1949,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A301" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K311" sqref="K311"/>
+      <selection pane="bottomLeft" activeCell="K313" sqref="K313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2114,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>62.203999999999951</v>
+        <v>63.453999999999951</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2124,7 +2124,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>17.289999999999992</v>
+        <v>17.539999999999992</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8976,15 +8976,17 @@
       <c r="B309" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C309" s="13"/>
+      <c r="C309" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D309" s="39">
         <v>5</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G309" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H309" s="39"/>
       <c r="I309" s="9"/>
@@ -9059,7 +9061,9 @@
       <c r="A313" s="40">
         <v>45292</v>
       </c>
-      <c r="B313" s="20"/>
+      <c r="B313" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C313" s="13"/>
       <c r="D313" s="39"/>
       <c r="E313" s="9"/>
@@ -9068,10 +9072,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H313" s="39"/>
+      <c r="H313" s="39">
+        <v>1</v>
+      </c>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
-      <c r="K313" s="20"/>
+      <c r="K313" s="50">
+        <v>45295</v>
+      </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
@@ -9420,7 +9428,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>79.493999999999943</v>
+        <v>80.993999999999943</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CCT/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/CCT/GARCIA, HEIZEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="275">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1615,7 +1615,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K323" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K324" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1944,12 +1944,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K323"/>
+  <dimension ref="A2:K324"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A301" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K313" sqref="K313"/>
+      <selection pane="bottomLeft" activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9082,10 +9082,10 @@
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B314" s="20"/>
+      <c r="A314" s="40"/>
+      <c r="B314" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C314" s="13"/>
       <c r="D314" s="39"/>
       <c r="E314" s="9"/>
@@ -9097,11 +9097,13 @@
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
-      <c r="K314" s="20"/>
+      <c r="K314" s="50">
+        <v>45307</v>
+      </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -9119,7 +9121,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -9137,7 +9139,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -9155,7 +9157,7 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -9173,7 +9175,7 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -9191,7 +9193,7 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -9209,7 +9211,7 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -9227,7 +9229,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -9245,21 +9247,39 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B323" s="20"/>
+      <c r="C323" s="13"/>
+      <c r="D323" s="39"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="20"/>
+      <c r="G323" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H323" s="39"/>
+      <c r="I323" s="9"/>
+      <c r="J323" s="11"/>
+      <c r="K323" s="20"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" s="40">
         <v>45597</v>
       </c>
-      <c r="B323" s="15"/>
-      <c r="C323" s="42"/>
-      <c r="D323" s="43"/>
-      <c r="E323" s="9"/>
-      <c r="F323" s="15"/>
-      <c r="G323" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H323" s="43"/>
-      <c r="I323" s="9"/>
-      <c r="J323" s="12"/>
-      <c r="K323" s="15"/>
+      <c r="B324" s="15"/>
+      <c r="C324" s="42"/>
+      <c r="D324" s="43"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="15"/>
+      <c r="G324" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H324" s="43"/>
+      <c r="I324" s="9"/>
+      <c r="J324" s="12"/>
+      <c r="K324" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CCT/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/CCT/GARCIA, HEIZEL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="285">
   <si>
     <t>PERIOD</t>
   </si>
@@ -918,6 +918,36 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>UT(1-4-47)</t>
+  </si>
+  <si>
+    <t>UT(0-0-27)</t>
+  </si>
+  <si>
+    <t>UT(0-0-1)</t>
+  </si>
+  <si>
+    <t>UT(0-0-32)</t>
+  </si>
+  <si>
+    <t>3/31/2023 (30)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/9,10,13/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-55)</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1645,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K324" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K333" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1944,12 +1974,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K324"/>
+  <dimension ref="A2:K333"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A301" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A289" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="G315" sqref="G315"/>
+      <selection pane="bottomLeft" activeCell="E301" sqref="E301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2144,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>63.453999999999951</v>
+        <v>56.599999999999881</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2124,7 +2154,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>17.539999999999992</v>
+        <v>18.539999999999992</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8632,32 +8662,30 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="40">
-        <v>44985</v>
-      </c>
-      <c r="B295" s="20"/>
-      <c r="C295" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D295" s="39"/>
+      <c r="A295" s="40"/>
+      <c r="B295" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C295" s="13"/>
+      <c r="D295" s="39">
+        <v>0.115</v>
+      </c>
       <c r="E295" s="9"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G295" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H295" s="39"/>
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
-      <c r="K295" s="20"/>
+      <c r="K295" s="50"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B296" s="20" t="s">
-        <v>68</v>
-      </c>
+        <v>44985</v>
+      </c>
+      <c r="B296" s="20"/>
       <c r="C296" s="13">
         <v>1.25</v>
       </c>
@@ -8668,35 +8696,35 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H296" s="39">
-        <v>3</v>
-      </c>
+      <c r="H296" s="39"/>
       <c r="I296" s="9"/>
       <c r="J296" s="11"/>
-      <c r="K296" s="20" t="s">
-        <v>260</v>
-      </c>
+      <c r="K296" s="20"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="40"/>
+      <c r="A297" s="40">
+        <v>45016</v>
+      </c>
       <c r="B297" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C297" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C297" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D297" s="39"/>
       <c r="E297" s="9"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G297" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H297" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I297" s="9"/>
       <c r="J297" s="11"/>
-      <c r="K297" s="50">
-        <v>45016</v>
+      <c r="K297" s="20" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -8717,26 +8745,22 @@
       </c>
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
-      <c r="K298" s="50">
-        <v>44993</v>
+      <c r="K298" s="50" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="40">
-        <v>45046</v>
-      </c>
+      <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C299" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C299" s="13"/>
       <c r="D299" s="39"/>
       <c r="E299" s="9"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G299" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H299" s="39">
         <v>1</v>
@@ -8744,119 +8768,113 @@
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
       <c r="K299" s="50">
-        <v>45028</v>
+        <v>44993</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="40">
-        <v>45077</v>
-      </c>
+      <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C300" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D300" s="39"/>
+        <v>282</v>
+      </c>
+      <c r="C300" s="13"/>
+      <c r="D300" s="39">
+        <v>3</v>
+      </c>
       <c r="E300" s="9"/>
       <c r="F300" s="20"/>
-      <c r="G300" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H300" s="39">
-        <v>1</v>
-      </c>
+      <c r="G300" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H300" s="39"/>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
-      <c r="K300" s="50">
-        <v>45054</v>
+      <c r="K300" s="50" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="40">
-        <v>45107</v>
-      </c>
+      <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C301" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D301" s="39"/>
+        <v>276</v>
+      </c>
+      <c r="C301" s="13"/>
+      <c r="D301" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E301" s="9"/>
       <c r="F301" s="20"/>
-      <c r="G301" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H301" s="39">
-        <v>1</v>
-      </c>
+      <c r="G301" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H301" s="39"/>
       <c r="I301" s="9"/>
       <c r="J301" s="11"/>
-      <c r="K301" s="50">
-        <v>45079</v>
-      </c>
+      <c r="K301" s="50"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="40"/>
+      <c r="A302" s="40">
+        <v>45046</v>
+      </c>
       <c r="B302" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C302" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="C302" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D302" s="39"/>
       <c r="E302" s="9"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H302" s="39"/>
+      <c r="G302" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H302" s="39">
+        <v>1</v>
+      </c>
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
       <c r="K302" s="50">
-        <v>45096</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="40">
-        <v>45138</v>
-      </c>
+      <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C303" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D303" s="39"/>
+        <v>280</v>
+      </c>
+      <c r="C303" s="13"/>
+      <c r="D303" s="39">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E303" s="9"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H303" s="39">
-        <v>1</v>
-      </c>
+      <c r="G303" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H303" s="39"/>
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
-      <c r="K303" s="50">
-        <v>45111</v>
-      </c>
+      <c r="K303" s="50"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="40"/>
+      <c r="A304" s="40">
+        <v>45077</v>
+      </c>
       <c r="B304" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C304" s="13"/>
+      <c r="C304" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D304" s="39"/>
       <c r="E304" s="9"/>
       <c r="F304" s="20"/>
-      <c r="G304" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G304" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H304" s="39">
         <v>1</v>
@@ -8864,15 +8882,15 @@
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="50">
-        <v>45135</v>
+        <v>45054</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
-        <v>45169</v>
+        <v>45107</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C305" s="13">
         <v>1.25</v>
@@ -8884,68 +8902,58 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H305" s="39"/>
+      <c r="H305" s="39">
+        <v>1</v>
+      </c>
       <c r="I305" s="9"/>
       <c r="J305" s="11"/>
       <c r="K305" s="50">
-        <v>45155</v>
+        <v>45079</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="40">
-        <v>45199</v>
-      </c>
+      <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C306" s="13">
-        <v>1.25</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C306" s="13"/>
       <c r="D306" s="39"/>
       <c r="E306" s="9"/>
       <c r="F306" s="20"/>
-      <c r="G306" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H306" s="39">
-        <v>1</v>
-      </c>
+      <c r="G306" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H306" s="39"/>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="50">
-        <v>45195</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="40">
-        <v>45230</v>
-      </c>
+      <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C307" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D307" s="39"/>
+        <v>279</v>
+      </c>
+      <c r="C307" s="13"/>
+      <c r="D307" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H307" s="39">
-        <v>1</v>
-      </c>
+      <c r="G307" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H307" s="39"/>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
-      <c r="K307" s="50">
-        <v>45211</v>
-      </c>
+      <c r="K307" s="50"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
-        <v>45260</v>
+        <v>45138</v>
       </c>
       <c r="B308" s="20" t="s">
         <v>51</v>
@@ -8966,69 +8974,71 @@
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
       <c r="K308" s="50">
-        <v>45261</v>
+        <v>45111</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="40">
-        <v>45291</v>
-      </c>
+      <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C309" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D309" s="39">
-        <v>5</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C309" s="13"/>
+      <c r="D309" s="39"/>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H309" s="39"/>
+      <c r="G309" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H309" s="39">
+        <v>1</v>
+      </c>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="20" t="s">
-        <v>273</v>
+      <c r="K309" s="50">
+        <v>45135</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="40"/>
+      <c r="A310" s="40">
+        <v>45169</v>
+      </c>
       <c r="B310" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C310" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="C310" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D310" s="39"/>
       <c r="E310" s="9"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H310" s="39">
-        <v>2</v>
-      </c>
+      <c r="G310" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H310" s="39"/>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
-      <c r="K310" s="20" t="s">
-        <v>272</v>
+      <c r="K310" s="50">
+        <v>45155</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="40"/>
+      <c r="A311" s="40">
+        <v>45199</v>
+      </c>
       <c r="B311" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C311" s="13"/>
+      <c r="C311" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D311" s="39"/>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G311" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H311" s="39">
         <v>1</v>
@@ -9036,16 +9046,18 @@
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
       <c r="K311" s="50">
-        <v>45279</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="B312" s="20"/>
+      <c r="A312" s="40"/>
+      <c r="B312" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="C312" s="13"/>
-      <c r="D312" s="39"/>
+      <c r="D312" s="39">
+        <v>1</v>
+      </c>
       <c r="E312" s="9"/>
       <c r="F312" s="20"/>
       <c r="G312" s="13" t="str">
@@ -9055,77 +9067,89 @@
       <c r="H312" s="39"/>
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
-      <c r="K312" s="20"/>
+      <c r="K312" s="50">
+        <v>45183</v>
+      </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="40">
-        <v>45292</v>
-      </c>
+      <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
-        <v>51</v>
+        <v>278</v>
       </c>
       <c r="C313" s="13"/>
-      <c r="D313" s="39"/>
+      <c r="D313" s="39">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E313" s="9"/>
       <c r="F313" s="20"/>
       <c r="G313" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H313" s="39">
-        <v>1</v>
-      </c>
+      <c r="H313" s="39"/>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
-      <c r="K313" s="50">
-        <v>45295</v>
-      </c>
+      <c r="K313" s="50"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="40"/>
+      <c r="A314" s="40">
+        <v>45230</v>
+      </c>
       <c r="B314" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C314" s="13"/>
-      <c r="D314" s="39"/>
+        <v>277</v>
+      </c>
+      <c r="C314" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D314" s="39">
+        <v>1.5979999999999999</v>
+      </c>
       <c r="E314" s="9"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G314" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
-      <c r="K314" s="50">
-        <v>45307</v>
-      </c>
+      <c r="K314" s="50"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B315" s="20"/>
-      <c r="C315" s="13"/>
+        <v>45260</v>
+      </c>
+      <c r="B315" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C315" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D315" s="39"/>
       <c r="E315" s="9"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H315" s="39"/>
+      <c r="G315" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H315" s="39">
+        <v>1</v>
+      </c>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
-      <c r="K315" s="20"/>
+      <c r="K315" s="50">
+        <v>45261</v>
+      </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A316" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B316" s="20"/>
+      <c r="A316" s="40"/>
+      <c r="B316" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="C316" s="13"/>
-      <c r="D316" s="39"/>
+      <c r="D316" s="39">
+        <v>1</v>
+      </c>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
       <c r="G316" s="13" t="str">
@@ -9135,15 +9159,19 @@
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
-      <c r="K316" s="20"/>
+      <c r="K316" s="50">
+        <v>45240</v>
+      </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B317" s="20"/>
+      <c r="A317" s="40"/>
+      <c r="B317" s="20" t="s">
+        <v>276</v>
+      </c>
       <c r="C317" s="13"/>
-      <c r="D317" s="39"/>
+      <c r="D317" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
       <c r="G317" s="13" t="str">
@@ -9153,31 +9181,39 @@
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
-      <c r="K317" s="20"/>
+      <c r="K317" s="50"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
-        <v>45413</v>
-      </c>
-      <c r="B318" s="20"/>
-      <c r="C318" s="13"/>
-      <c r="D318" s="39"/>
+        <v>45291</v>
+      </c>
+      <c r="B318" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C318" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D318" s="39">
+        <v>5</v>
+      </c>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G318" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
-      <c r="K318" s="20"/>
+      <c r="K318" s="20" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B319" s="20"/>
+      <c r="A319" s="40"/>
+      <c r="B319" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C319" s="13"/>
       <c r="D319" s="39"/>
       <c r="E319" s="9"/>
@@ -9186,16 +9222,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H319" s="39"/>
+      <c r="H319" s="39">
+        <v>2</v>
+      </c>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
-      <c r="K319" s="20"/>
+      <c r="K319" s="20" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="40">
-        <v>45474</v>
-      </c>
-      <c r="B320" s="20"/>
+      <c r="A320" s="40"/>
+      <c r="B320" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
       <c r="E320" s="9"/>
@@ -9204,14 +9244,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H320" s="39"/>
+      <c r="H320" s="39">
+        <v>1</v>
+      </c>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
-      <c r="K320" s="20"/>
+      <c r="K320" s="50">
+        <v>45279</v>
+      </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="40">
-        <v>45505</v>
+      <c r="A321" s="48" t="s">
+        <v>274</v>
       </c>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -9229,9 +9273,11 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B322" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B322" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C322" s="13"/>
       <c r="D322" s="39"/>
       <c r="E322" s="9"/>
@@ -9240,16 +9286,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H322" s="39"/>
+      <c r="H322" s="39">
+        <v>1</v>
+      </c>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
-      <c r="K322" s="20"/>
+      <c r="K322" s="50">
+        <v>45295</v>
+      </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="40">
-        <v>45566</v>
-      </c>
-      <c r="B323" s="20"/>
+      <c r="A323" s="40"/>
+      <c r="B323" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C323" s="13"/>
       <c r="D323" s="39"/>
       <c r="E323" s="9"/>
@@ -9261,25 +9311,189 @@
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
-      <c r="K323" s="20"/>
+      <c r="K323" s="50">
+        <v>45307</v>
+      </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B324" s="20"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="39"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="20"/>
+      <c r="G324" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H324" s="39"/>
+      <c r="I324" s="9"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="20"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B325" s="20"/>
+      <c r="C325" s="13"/>
+      <c r="D325" s="39"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="20"/>
+      <c r="G325" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H325" s="39"/>
+      <c r="I325" s="9"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="20"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B326" s="20"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="39"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="20"/>
+      <c r="G326" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H326" s="39"/>
+      <c r="I326" s="9"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="20"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="13"/>
+      <c r="D327" s="39"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H327" s="39"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="20"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B328" s="20"/>
+      <c r="C328" s="13"/>
+      <c r="D328" s="39"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H328" s="39"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="20"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B329" s="20"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="39"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H329" s="39"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="20"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B330" s="20"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="39"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H330" s="39"/>
+      <c r="I330" s="9"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="20"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B331" s="20"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="39"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H331" s="39"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="20"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B332" s="20"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="39"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H332" s="39"/>
+      <c r="I332" s="9"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="20"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="40">
         <v>45597</v>
       </c>
-      <c r="B324" s="15"/>
-      <c r="C324" s="42"/>
-      <c r="D324" s="43"/>
-      <c r="E324" s="9"/>
-      <c r="F324" s="15"/>
-      <c r="G324" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H324" s="43"/>
-      <c r="I324" s="9"/>
-      <c r="J324" s="12"/>
-      <c r="K324" s="15"/>
+      <c r="B333" s="15"/>
+      <c r="C333" s="42"/>
+      <c r="D333" s="43"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="15"/>
+      <c r="G333" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H333" s="43"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="12"/>
+      <c r="K333" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9388,18 +9602,14 @@
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0.115</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -9448,7 +9658,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>80.993999999999943</v>
+        <v>75.139999999999873</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CCT/GARCIA, HEIZEL.xlsx
+++ b/REGULAR/CCT/GARCIA, HEIZEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9267B484-4322-46BC-B604-C7368C689096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="282">
   <si>
     <t>PERIOD</t>
   </si>
@@ -920,9 +921,6 @@
     <t>2024</t>
   </si>
   <si>
-    <t>A(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-4)</t>
   </si>
   <si>
@@ -939,12 +937,6 @@
   </si>
   <si>
     <t>3/31/2023 (30)</t>
-  </si>
-  <si>
-    <t>A(3-0-0)</t>
-  </si>
-  <si>
-    <t>3/9,10,13/2023</t>
   </si>
   <si>
     <t>UT(0-0-55)</t>
@@ -953,7 +945,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1628,7 +1620,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1645,25 +1637,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K333" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K330" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1970,34 +1962,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K333"/>
+  <dimension ref="A2:K330"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A289" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A298" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E301" sqref="E301"/>
+      <selection pane="bottomLeft" activeCell="F309" sqref="F309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2020,7 +2012,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2040,7 +2032,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2062,7 +2054,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2070,7 +2062,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2083,7 +2075,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2100,7 +2092,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2135,7 +2127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2144,7 +2136,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>56.599999999999881</v>
+        <v>62.849999999999881</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2154,12 +2146,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.539999999999992</v>
+        <v>18.789999999999992</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2181,7 +2173,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>39994</v>
       </c>
@@ -2201,7 +2193,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>40025</v>
       </c>
@@ -2221,7 +2213,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>40056</v>
       </c>
@@ -2241,7 +2233,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>40086</v>
       </c>
@@ -2261,7 +2253,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>40117</v>
       </c>
@@ -2281,7 +2273,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>40147</v>
       </c>
@@ -2301,7 +2293,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>40178</v>
       </c>
@@ -2331,7 +2323,7 @@
       </c>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -2349,7 +2341,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>40209</v>
       </c>
@@ -2369,7 +2361,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>40237</v>
       </c>
@@ -2389,7 +2381,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>40268</v>
       </c>
@@ -2409,7 +2401,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>40298</v>
       </c>
@@ -2429,7 +2421,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>40329</v>
       </c>
@@ -2449,7 +2441,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>40359</v>
       </c>
@@ -2469,7 +2461,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>40390</v>
       </c>
@@ -2495,7 +2487,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>49</v>
@@ -2517,7 +2509,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>40420</v>
       </c>
@@ -2537,7 +2529,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>40451</v>
       </c>
@@ -2561,7 +2553,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>40481</v>
       </c>
@@ -2587,7 +2579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>51</v>
@@ -2609,7 +2601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>234</v>
@@ -2629,7 +2621,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>40512</v>
       </c>
@@ -2653,7 +2645,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>40543</v>
       </c>
@@ -2679,7 +2671,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>58</v>
       </c>
@@ -2697,7 +2689,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>40574</v>
       </c>
@@ -2717,7 +2709,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>40602</v>
       </c>
@@ -2737,7 +2729,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>40633</v>
       </c>
@@ -2757,7 +2749,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>40663</v>
       </c>
@@ -2779,7 +2771,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>235</v>
@@ -2803,7 +2795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>40694</v>
       </c>
@@ -2827,7 +2819,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>40724</v>
       </c>
@@ -2853,7 +2845,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2873,7 +2865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>40755</v>
       </c>
@@ -2897,7 +2889,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>40786</v>
       </c>
@@ -2921,7 +2913,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>40816</v>
       </c>
@@ -2947,7 +2939,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>67</v>
@@ -2969,7 +2961,7 @@
         <v>40795</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>68</v>
@@ -2991,7 +2983,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>67</v>
@@ -3013,7 +3005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>40847</v>
       </c>
@@ -3039,7 +3031,7 @@
         <v>40734</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>40877</v>
       </c>
@@ -3063,7 +3055,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>40908</v>
       </c>
@@ -3089,7 +3081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>40939</v>
       </c>
@@ -3115,7 +3107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>68</v>
@@ -3137,7 +3129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>75</v>
@@ -3159,7 +3151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="48" t="s">
         <v>77</v>
       </c>
@@ -3177,7 +3169,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>40909</v>
       </c>
@@ -3203,7 +3195,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>59</v>
@@ -3223,7 +3215,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>51</v>
@@ -3245,7 +3237,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3261,7 +3253,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>40940</v>
       </c>
@@ -3287,7 +3279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>40969</v>
       </c>
@@ -3307,7 +3299,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>41000</v>
       </c>
@@ -3331,7 +3323,7 @@
         <v>41003</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>51</v>
@@ -3353,7 +3345,7 @@
         <v>41217</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>51</v>
@@ -3375,7 +3367,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>81</v>
@@ -3397,7 +3389,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>83</v>
@@ -3419,7 +3411,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>41030</v>
       </c>
@@ -3443,7 +3435,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>41061</v>
       </c>
@@ -3467,7 +3459,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>51</v>
@@ -3489,7 +3481,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>41091</v>
       </c>
@@ -3515,7 +3507,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>51</v>
@@ -3537,7 +3529,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>41122</v>
       </c>
@@ -3565,7 +3557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>41153</v>
       </c>
@@ -3591,7 +3583,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>41183</v>
       </c>
@@ -3611,7 +3603,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>40848</v>
       </c>
@@ -3637,7 +3629,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>51</v>
@@ -3659,7 +3651,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>93</v>
@@ -3681,7 +3673,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>41244</v>
       </c>
@@ -3707,7 +3699,7 @@
         <v>41011</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>51</v>
@@ -3729,7 +3721,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>68</v>
@@ -3751,7 +3743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23" t="s">
         <v>98</v>
       </c>
@@ -3769,7 +3761,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>41275</v>
       </c>
@@ -3795,7 +3787,7 @@
         <v>41306</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>59</v>
@@ -3815,7 +3807,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>237</v>
@@ -3835,7 +3827,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>41306</v>
       </c>
@@ -3859,7 +3851,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>83</v>
@@ -3881,7 +3873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>51</v>
@@ -3903,7 +3895,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>104</v>
@@ -3923,7 +3915,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>41334</v>
       </c>
@@ -3951,7 +3943,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>231</v>
@@ -3975,7 +3967,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>107</v>
@@ -3997,7 +3989,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>41365</v>
       </c>
@@ -4023,7 +4015,7 @@
         <v>41278</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>96</v>
@@ -4047,7 +4039,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>83</v>
@@ -4069,7 +4061,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>41395</v>
       </c>
@@ -4093,7 +4085,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>68</v>
@@ -4115,7 +4107,7 @@
       </c>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>41426</v>
       </c>
@@ -4139,7 +4131,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>41456</v>
       </c>
@@ -4167,7 +4159,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>59</v>
@@ -4187,7 +4179,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>112</v>
@@ -4207,7 +4199,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>41487</v>
       </c>
@@ -4237,7 +4229,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>176</v>
@@ -4259,7 +4251,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>116</v>
@@ -4279,7 +4271,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>41518</v>
       </c>
@@ -4305,7 +4297,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>41548</v>
       </c>
@@ -4329,7 +4321,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>41579</v>
       </c>
@@ -4357,7 +4349,7 @@
       </c>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>41609</v>
       </c>
@@ -4381,7 +4373,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>121</v>
@@ -4405,7 +4397,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="s">
         <v>122</v>
       </c>
@@ -4423,7 +4415,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>41640</v>
       </c>
@@ -4447,7 +4439,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>239</v>
@@ -4467,7 +4459,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>41671</v>
       </c>
@@ -4493,7 +4485,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>41699</v>
       </c>
@@ -4519,7 +4511,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>41730</v>
       </c>
@@ -4545,7 +4537,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>41760</v>
       </c>
@@ -4571,7 +4563,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>41791</v>
       </c>
@@ -4597,7 +4589,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>41821</v>
       </c>
@@ -4617,7 +4609,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>41852</v>
       </c>
@@ -4637,7 +4629,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>41883</v>
       </c>
@@ -4665,7 +4657,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41">
         <v>41913</v>
       </c>
@@ -4691,7 +4683,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="15"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>41944</v>
       </c>
@@ -4717,7 +4709,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
@@ -4739,7 +4731,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>41974</v>
       </c>
@@ -4765,7 +4757,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>135</v>
@@ -4787,7 +4779,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="48" t="s">
         <v>136</v>
       </c>
@@ -4805,7 +4797,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>42005</v>
       </c>
@@ -4829,7 +4821,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>59</v>
@@ -4847,7 +4839,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>83</v>
@@ -4869,7 +4861,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>139</v>
@@ -4891,7 +4883,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>42036</v>
       </c>
@@ -4917,7 +4909,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>42065</v>
       </c>
@@ -4943,7 +4935,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>42095</v>
       </c>
@@ -4969,7 +4961,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>42125</v>
       </c>
@@ -4995,7 +4987,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>143</v>
@@ -5017,7 +5009,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>42156</v>
       </c>
@@ -5043,7 +5035,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>42186</v>
       </c>
@@ -5067,7 +5059,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>42217</v>
       </c>
@@ -5093,7 +5085,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>42248</v>
       </c>
@@ -5117,7 +5109,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>42278</v>
       </c>
@@ -5141,7 +5133,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>42309</v>
       </c>
@@ -5167,7 +5159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>264</v>
@@ -5189,7 +5181,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>42339</v>
       </c>
@@ -5215,7 +5207,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="48" t="s">
         <v>151</v>
       </c>
@@ -5233,7 +5225,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>42370</v>
       </c>
@@ -5257,7 +5249,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>153</v>
@@ -5279,7 +5271,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>42371</v>
       </c>
@@ -5303,7 +5295,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>42430</v>
       </c>
@@ -5327,7 +5319,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>42461</v>
       </c>
@@ -5353,7 +5345,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>240</v>
@@ -5373,7 +5365,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>42491</v>
       </c>
@@ -5399,7 +5391,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>42522</v>
       </c>
@@ -5423,7 +5415,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>42552</v>
       </c>
@@ -5447,7 +5439,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>42583</v>
       </c>
@@ -5471,7 +5463,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>42614</v>
       </c>
@@ -5491,7 +5483,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>42644</v>
       </c>
@@ -5515,7 +5507,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>42675</v>
       </c>
@@ -5541,7 +5533,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>42705</v>
       </c>
@@ -5565,7 +5557,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23" t="s">
         <v>159</v>
       </c>
@@ -5583,7 +5575,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <v>42736</v>
       </c>
@@ -5603,7 +5595,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23">
         <f>EDATE(A159,1)</f>
         <v>42767</v>
@@ -5624,7 +5616,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <f t="shared" ref="A161:A167" si="0">EDATE(A160,1)</f>
         <v>42795</v>
@@ -5645,7 +5637,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23">
         <f t="shared" si="0"/>
         <v>42826</v>
@@ -5672,7 +5664,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>59</v>
@@ -5692,7 +5684,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>83</v>
@@ -5714,7 +5706,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>59</v>
@@ -5734,7 +5726,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23">
         <f>EDATE(A162,1)</f>
         <v>42856</v>
@@ -5755,7 +5747,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <f t="shared" si="0"/>
         <v>42887</v>
@@ -5776,7 +5768,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>42917</v>
       </c>
@@ -5802,7 +5794,7 @@
         <v>42933</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>51</v>
@@ -5824,7 +5816,7 @@
         <v>42934</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f>EDATE(A168,1)</f>
         <v>42948</v>
@@ -5851,7 +5843,7 @@
         <v>42954</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>51</v>
@@ -5873,7 +5865,7 @@
         <v>42961</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>83</v>
@@ -5895,7 +5887,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>51</v>
@@ -5917,7 +5909,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <f>EDATE(A170,1)</f>
         <v>42979</v>
@@ -5938,7 +5930,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="50"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f t="shared" ref="A175:A178" si="1">EDATE(A174,1)</f>
         <v>43009</v>
@@ -5965,7 +5957,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>83</v>
@@ -5987,7 +5979,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f>EDATE(A175,1)</f>
         <v>43040</v>
@@ -6014,7 +6006,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f t="shared" si="1"/>
         <v>43070</v>
@@ -6041,7 +6033,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>231</v>
@@ -6063,7 +6055,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23" t="s">
         <v>161</v>
       </c>
@@ -6081,7 +6073,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>43101</v>
       </c>
@@ -6107,7 +6099,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>59</v>
@@ -6129,7 +6121,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>51</v>
@@ -6153,7 +6145,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>51</v>
@@ -6177,7 +6169,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>43132</v>
       </c>
@@ -6197,7 +6189,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>43160</v>
       </c>
@@ -6223,7 +6215,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>51</v>
@@ -6245,7 +6237,7 @@
         <v>43317</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>59</v>
@@ -6265,7 +6257,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>43191</v>
       </c>
@@ -6291,7 +6283,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>51</v>
@@ -6313,7 +6305,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>43221</v>
       </c>
@@ -6339,7 +6331,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>59</v>
@@ -6359,7 +6351,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>43252</v>
       </c>
@@ -6379,7 +6371,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>43282</v>
       </c>
@@ -6405,7 +6397,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>68</v>
@@ -6427,7 +6419,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>171</v>
@@ -6449,7 +6441,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>51</v>
@@ -6471,7 +6463,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>83</v>
@@ -6493,7 +6485,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>43313</v>
       </c>
@@ -6519,7 +6511,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>43344</v>
       </c>
@@ -6545,7 +6537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>43374</v>
       </c>
@@ -6569,7 +6561,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>176</v>
@@ -6593,7 +6585,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>43405</v>
       </c>
@@ -6617,7 +6609,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>59</v>
@@ -6637,7 +6629,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>43435</v>
       </c>
@@ -6657,7 +6649,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="48" t="s">
         <v>179</v>
       </c>
@@ -6675,7 +6667,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>43466</v>
       </c>
@@ -6697,7 +6689,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>83</v>
@@ -6721,7 +6713,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>43497</v>
       </c>
@@ -6747,7 +6739,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>43525</v>
       </c>
@@ -6771,7 +6763,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>51</v>
@@ -6795,7 +6787,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>43556</v>
       </c>
@@ -6821,7 +6813,7 @@
         <v>43469</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>51</v>
@@ -6843,7 +6835,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>83</v>
@@ -6865,7 +6857,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>43586</v>
       </c>
@@ -6891,7 +6883,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>187</v>
@@ -6911,7 +6903,7 @@
       </c>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>43617</v>
       </c>
@@ -6935,7 +6927,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>43647</v>
       </c>
@@ -6961,7 +6953,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>190</v>
@@ -6983,7 +6975,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>83</v>
@@ -7005,7 +6997,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>83</v>
@@ -7027,7 +7019,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>51</v>
@@ -7049,7 +7041,7 @@
         <v>43473</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>43678</v>
       </c>
@@ -7075,7 +7067,7 @@
         <v>43685</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>83</v>
@@ -7097,7 +7089,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>51</v>
@@ -7119,7 +7111,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>51</v>
@@ -7141,7 +7133,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>43709</v>
       </c>
@@ -7161,7 +7153,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>43739</v>
       </c>
@@ -7185,7 +7177,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>51</v>
@@ -7209,7 +7201,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>43770</v>
       </c>
@@ -7233,7 +7225,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>102</v>
@@ -7259,7 +7251,7 @@
         <v>43627</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>43800</v>
       </c>
@@ -7283,7 +7275,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>102</v>
@@ -7307,7 +7299,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23" t="s">
         <v>201</v>
       </c>
@@ -7325,7 +7317,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>43831</v>
       </c>
@@ -7353,7 +7345,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>59</v>
@@ -7373,7 +7365,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>204</v>
@@ -7395,7 +7387,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>100</v>
@@ -7415,7 +7407,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>207</v>
@@ -7435,7 +7427,7 @@
         <v>43893</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>43862</v>
       </c>
@@ -7455,7 +7447,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>43891</v>
       </c>
@@ -7475,7 +7467,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>43922</v>
       </c>
@@ -7495,7 +7487,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>43952</v>
       </c>
@@ -7515,7 +7507,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>43983</v>
       </c>
@@ -7539,7 +7531,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>44013</v>
       </c>
@@ -7565,7 +7557,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>211</v>
@@ -7587,7 +7579,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>44044</v>
       </c>
@@ -7611,7 +7603,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>44075</v>
       </c>
@@ -7637,7 +7629,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>214</v>
@@ -7657,7 +7649,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>44105</v>
       </c>
@@ -7679,7 +7671,7 @@
         <v>43933</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>44136</v>
       </c>
@@ -7705,7 +7697,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>208</v>
@@ -7723,7 +7715,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>44166</v>
       </c>
@@ -7749,7 +7741,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="48" t="s">
         <v>218</v>
       </c>
@@ -7767,7 +7759,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>44197</v>
       </c>
@@ -7791,7 +7783,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A255,1)</f>
         <v>44228</v>
@@ -7812,7 +7804,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <f t="shared" ref="A257:A266" si="2">EDATE(A256,1)</f>
         <v>44256</v>
@@ -7833,7 +7825,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f t="shared" si="2"/>
         <v>44287</v>
@@ -7854,7 +7846,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="2"/>
         <v>44317</v>
@@ -7875,7 +7867,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="2"/>
         <v>44348</v>
@@ -7896,7 +7888,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="2"/>
         <v>44378</v>
@@ -7917,7 +7909,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <f t="shared" si="2"/>
         <v>44409</v>
@@ -7938,7 +7930,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <f t="shared" si="2"/>
         <v>44440</v>
@@ -7959,7 +7951,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f t="shared" si="2"/>
         <v>44470</v>
@@ -7980,7 +7972,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" si="2"/>
         <v>44501</v>
@@ -8001,7 +7993,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="2"/>
         <v>44531</v>
@@ -8028,7 +8020,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23" t="s">
         <v>221</v>
       </c>
@@ -8046,7 +8038,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>44562</v>
       </c>
@@ -8070,7 +8062,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>44593</v>
       </c>
@@ -8090,7 +8082,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>44621</v>
       </c>
@@ -8114,7 +8106,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>214</v>
@@ -8136,7 +8128,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>44654</v>
       </c>
@@ -8162,7 +8154,7 @@
         <v>44655</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>271</v>
@@ -8182,7 +8174,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="50"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>44682</v>
       </c>
@@ -8208,7 +8200,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>214</v>
@@ -8230,7 +8222,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>208</v>
@@ -8250,7 +8242,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>270</v>
@@ -8270,7 +8262,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>44713</v>
       </c>
@@ -8294,7 +8286,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>208</v>
@@ -8316,7 +8308,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>269</v>
@@ -8336,7 +8328,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <v>44743</v>
       </c>
@@ -8362,7 +8354,7 @@
         <v>44568</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A281,1)</f>
         <v>44774</v>
@@ -8387,7 +8379,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" ref="A283:A284" si="3">EDATE(A282,1)</f>
         <v>44805</v>
@@ -8412,7 +8404,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f t="shared" si="3"/>
         <v>44835</v>
@@ -8439,7 +8431,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>267</v>
@@ -8459,7 +8451,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="50"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A284,1)</f>
         <v>44866</v>
@@ -8486,7 +8478,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>51</v>
@@ -8508,7 +8500,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>266</v>
@@ -8528,7 +8520,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="50"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>44896</v>
@@ -8555,7 +8547,7 @@
         <v>44907</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>231</v>
@@ -8577,7 +8569,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>265</v>
@@ -8597,7 +8589,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="48" t="s">
         <v>259</v>
       </c>
@@ -8615,7 +8607,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>44957</v>
       </c>
@@ -8639,7 +8631,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>51</v>
@@ -8661,10 +8653,10 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C295" s="13"/>
       <c r="D295" s="39">
@@ -8681,7 +8673,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="50"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>44985</v>
       </c>
@@ -8701,7 +8693,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>45016</v>
       </c>
@@ -8727,7 +8719,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>51</v>
@@ -8746,10 +8738,10 @@
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
       <c r="K298" s="50" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>51</v>
@@ -8771,14 +8763,14 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C300" s="13"/>
       <c r="D300" s="39">
-        <v>3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E300" s="9"/>
       <c r="F300" s="20"/>
@@ -8789,79 +8781,83 @@
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
-      <c r="K300" s="50" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A301" s="40"/>
+      <c r="K300" s="50"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="40">
+        <v>45046</v>
+      </c>
       <c r="B301" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C301" s="13"/>
-      <c r="D301" s="39">
-        <v>8.0000000000000002E-3</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C301" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D301" s="39"/>
       <c r="E301" s="9"/>
       <c r="F301" s="20"/>
-      <c r="G301" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H301" s="39"/>
+      <c r="G301" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H301" s="39">
+        <v>1</v>
+      </c>
       <c r="I301" s="9"/>
       <c r="J301" s="11"/>
-      <c r="K301" s="50"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="40">
-        <v>45046</v>
-      </c>
+      <c r="K301" s="50">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C302" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D302" s="39"/>
+        <v>279</v>
+      </c>
+      <c r="C302" s="13"/>
+      <c r="D302" s="39">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E302" s="9"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H302" s="39">
-        <v>1</v>
-      </c>
+      <c r="G302" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H302" s="39"/>
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
-      <c r="K302" s="50">
-        <v>45028</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A303" s="40"/>
+      <c r="K302" s="50"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="40">
+        <v>45077</v>
+      </c>
       <c r="B303" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C303" s="13"/>
-      <c r="D303" s="39">
-        <v>6.7000000000000004E-2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C303" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D303" s="39"/>
       <c r="E303" s="9"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H303" s="39"/>
+      <c r="G303" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H303" s="39">
+        <v>1</v>
+      </c>
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
-      <c r="K303" s="50"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K303" s="50">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="B304" s="20" t="s">
         <v>51</v>
@@ -8882,42 +8878,38 @@
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="50">
-        <v>45054</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="40">
-        <v>45107</v>
-      </c>
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C305" s="13">
-        <v>1.25</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C305" s="13"/>
       <c r="D305" s="39"/>
       <c r="E305" s="9"/>
       <c r="F305" s="20"/>
-      <c r="G305" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H305" s="39">
-        <v>1</v>
-      </c>
+      <c r="G305" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H305" s="39"/>
       <c r="I305" s="9"/>
       <c r="J305" s="11"/>
       <c r="K305" s="50">
-        <v>45079</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="C306" s="13"/>
-      <c r="D306" s="39"/>
+      <c r="D306" s="39">
+        <v>2E-3</v>
+      </c>
       <c r="E306" s="9"/>
       <c r="F306" s="20"/>
       <c r="G306" s="13" t="str">
@@ -8927,46 +8919,46 @@
       <c r="H306" s="39"/>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
-      <c r="K306" s="50">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="40"/>
+      <c r="K306" s="50"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" s="40">
+        <v>45138</v>
+      </c>
       <c r="B307" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C307" s="13"/>
-      <c r="D307" s="39">
-        <v>2E-3</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C307" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D307" s="39"/>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H307" s="39"/>
+      <c r="G307" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H307" s="39">
+        <v>1</v>
+      </c>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
-      <c r="K307" s="50"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="40">
-        <v>45138</v>
-      </c>
+      <c r="K307" s="50">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C308" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C308" s="13"/>
       <c r="D308" s="39"/>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G308" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H308" s="39">
         <v>1</v>
@@ -8974,37 +8966,39 @@
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
       <c r="K308" s="50">
-        <v>45111</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="40"/>
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="40">
+        <v>45169</v>
+      </c>
       <c r="B309" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C309" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="C309" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D309" s="39"/>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H309" s="39">
-        <v>1</v>
-      </c>
+      <c r="G309" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H309" s="39"/>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
       <c r="K309" s="50">
-        <v>45135</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45155</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
-        <v>45169</v>
+        <v>45199</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C310" s="13">
         <v>1.25</v>
@@ -9016,225 +9010,223 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H310" s="39"/>
+      <c r="H310" s="39">
+        <v>1</v>
+      </c>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
       <c r="K310" s="50">
-        <v>45155</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="40">
-        <v>45199</v>
-      </c>
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C311" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D311" s="39"/>
+        <v>277</v>
+      </c>
+      <c r="C311" s="13"/>
+      <c r="D311" s="39">
+        <v>5.6000000000000015E-2</v>
+      </c>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H311" s="39">
-        <v>1</v>
-      </c>
+      <c r="G311" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H311" s="39"/>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
-      <c r="K311" s="50">
-        <v>45195</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A312" s="40"/>
+      <c r="K311" s="50"/>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="40">
+        <v>45230</v>
+      </c>
       <c r="B312" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C312" s="13"/>
+        <v>276</v>
+      </c>
+      <c r="C312" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D312" s="39">
-        <v>1</v>
+        <v>1.5979999999999999</v>
       </c>
       <c r="E312" s="9"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G312" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H312" s="39"/>
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
-      <c r="K312" s="50">
-        <v>45183</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="40"/>
+      <c r="K312" s="50"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="40">
+        <v>45260</v>
+      </c>
       <c r="B313" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="C313" s="13"/>
-      <c r="D313" s="39">
-        <v>5.6000000000000015E-2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C313" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D313" s="39"/>
       <c r="E313" s="9"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H313" s="39"/>
+      <c r="G313" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H313" s="39">
+        <v>1</v>
+      </c>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
-      <c r="K313" s="50"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A314" s="40">
-        <v>45230</v>
-      </c>
+      <c r="K313" s="50">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C314" s="13">
-        <v>1.25</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C314" s="13"/>
       <c r="D314" s="39">
-        <v>1.5979999999999999</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E314" s="9"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G314" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
       <c r="K314" s="50"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
-        <v>45260</v>
+        <v>45291</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="C315" s="13">
         <v>1.25</v>
       </c>
-      <c r="D315" s="39"/>
+      <c r="D315" s="39">
+        <v>5</v>
+      </c>
       <c r="E315" s="9"/>
       <c r="F315" s="20"/>
       <c r="G315" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H315" s="39">
-        <v>1</v>
-      </c>
+      <c r="H315" s="39"/>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
-      <c r="K315" s="50">
-        <v>45261</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K315" s="20" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
-        <v>275</v>
+        <v>83</v>
       </c>
       <c r="C316" s="13"/>
-      <c r="D316" s="39">
-        <v>1</v>
-      </c>
+      <c r="D316" s="39"/>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
       <c r="G316" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H316" s="39"/>
+      <c r="H316" s="39">
+        <v>2</v>
+      </c>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
-      <c r="K316" s="50">
-        <v>45240</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K316" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="C317" s="13"/>
-      <c r="D317" s="39">
-        <v>8.0000000000000002E-3</v>
-      </c>
+      <c r="D317" s="39"/>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
       <c r="G317" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H317" s="39"/>
+      <c r="H317" s="39">
+        <v>1</v>
+      </c>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
-      <c r="K317" s="50"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B318" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C318" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D318" s="39">
-        <v>5</v>
-      </c>
+      <c r="K317" s="50">
+        <v>45279</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B318" s="20"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="39"/>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G318" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
-      <c r="K318" s="20" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="40"/>
+      <c r="K318" s="20"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="40">
+        <v>45292</v>
+      </c>
       <c r="B319" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C319" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="C319" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D319" s="39"/>
       <c r="E319" s="9"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G319" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H319" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
-      <c r="K319" s="20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K319" s="50">
+        <v>45295</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
@@ -9244,20 +9236,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H320" s="39">
-        <v>1</v>
-      </c>
+      <c r="H320" s="39"/>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="50">
-        <v>45279</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="B321" s="20"/>
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B321" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C321" s="13"/>
       <c r="D321" s="39"/>
       <c r="E321" s="9"/>
@@ -9266,18 +9258,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H321" s="39"/>
+      <c r="H321" s="39">
+        <v>1</v>
+      </c>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
-      <c r="K321" s="20"/>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K321" s="50">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B322" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>45352</v>
+      </c>
+      <c r="B322" s="20"/>
       <c r="C322" s="13"/>
       <c r="D322" s="39"/>
       <c r="E322" s="9"/>
@@ -9286,20 +9280,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H322" s="39">
-        <v>1</v>
-      </c>
+      <c r="H322" s="39"/>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
-      <c r="K322" s="50">
-        <v>45295</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="40"/>
-      <c r="B323" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="K322" s="20"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B323" s="20"/>
       <c r="C323" s="13"/>
       <c r="D323" s="39"/>
       <c r="E323" s="9"/>
@@ -9311,13 +9301,11 @@
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
-      <c r="K323" s="50">
-        <v>45307</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K323" s="20"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -9333,9 +9321,9 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -9351,9 +9339,9 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -9369,9 +9357,9 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
-        <v>45413</v>
+        <v>45505</v>
       </c>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -9387,9 +9375,9 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
-        <v>45444</v>
+        <v>45536</v>
       </c>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -9405,9 +9393,9 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -9423,77 +9411,23 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
-        <v>45505</v>
-      </c>
-      <c r="B330" s="20"/>
-      <c r="C330" s="13"/>
-      <c r="D330" s="39"/>
+        <v>45597</v>
+      </c>
+      <c r="B330" s="15"/>
+      <c r="C330" s="42"/>
+      <c r="D330" s="43"/>
       <c r="E330" s="9"/>
-      <c r="F330" s="20"/>
+      <c r="F330" s="15"/>
       <c r="G330" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H330" s="39"/>
+      <c r="H330" s="43"/>
       <c r="I330" s="9"/>
-      <c r="J330" s="11"/>
-      <c r="K330" s="20"/>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="40">
-        <v>45536</v>
-      </c>
-      <c r="B331" s="20"/>
-      <c r="C331" s="13"/>
-      <c r="D331" s="39"/>
-      <c r="E331" s="9"/>
-      <c r="F331" s="20"/>
-      <c r="G331" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H331" s="39"/>
-      <c r="I331" s="9"/>
-      <c r="J331" s="11"/>
-      <c r="K331" s="20"/>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="40">
-        <v>45566</v>
-      </c>
-      <c r="B332" s="20"/>
-      <c r="C332" s="13"/>
-      <c r="D332" s="39"/>
-      <c r="E332" s="9"/>
-      <c r="F332" s="20"/>
-      <c r="G332" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H332" s="39"/>
-      <c r="I332" s="9"/>
-      <c r="J332" s="11"/>
-      <c r="K332" s="20"/>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="40">
-        <v>45597</v>
-      </c>
-      <c r="B333" s="15"/>
-      <c r="C333" s="42"/>
-      <c r="D333" s="43"/>
-      <c r="E333" s="9"/>
-      <c r="F333" s="15"/>
-      <c r="G333" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H333" s="43"/>
-      <c r="I333" s="9"/>
-      <c r="J333" s="12"/>
-      <c r="K333" s="15"/>
+      <c r="J330" s="12"/>
+      <c r="K330" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9510,10 +9444,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9536,28 +9470,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -9570,7 +9504,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9599,7 +9533,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -9621,17 +9555,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>261</v>
       </c>
@@ -9655,10 +9589,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>75.139999999999873</v>
+        <v>81.639999999999873</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -9686,7 +9620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9712,7 +9646,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9738,7 +9672,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9764,7 +9698,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9790,7 +9724,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9816,7 +9750,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9842,7 +9776,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9868,7 +9802,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9888,7 +9822,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9908,7 +9842,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9928,7 +9862,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9949,7 +9883,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9970,7 +9904,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9991,7 +9925,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10012,7 +9946,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10033,7 +9967,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10054,7 +9988,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10075,7 +10009,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10096,7 +10030,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10117,7 +10051,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10138,7 +10072,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10159,7 +10093,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10180,7 +10114,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10201,7 +10135,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10222,7 +10156,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10243,7 +10177,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10264,7 +10198,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10285,7 +10219,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10306,7 +10240,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10327,7 +10261,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10348,7 +10282,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10357,7 +10291,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10366,7 +10300,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10375,7 +10309,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10384,7 +10318,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10393,7 +10327,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10402,7 +10336,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10411,7 +10345,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10420,7 +10354,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10429,7 +10363,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10438,7 +10372,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10447,7 +10381,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10456,7 +10390,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10465,7 +10399,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10474,7 +10408,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10483,7 +10417,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10492,7 +10426,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10501,7 +10435,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10510,7 +10444,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10519,7 +10453,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10528,7 +10462,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10537,7 +10471,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10546,7 +10480,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10555,7 +10489,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10564,7 +10498,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10573,7 +10507,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10582,7 +10516,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10591,7 +10525,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10600,7 +10534,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10609,7 +10543,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
